--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Sunday Football\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\To upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653A20C6-0B4E-41F9-A2EC-7B03638264F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C6996-E5E7-46FF-877B-3473598BE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division 1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,7 +222,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -624,7 +623,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,8 +657,12 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
@@ -690,7 +693,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,6 +727,12 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
@@ -731,6 +740,12 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -753,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,6 +807,12 @@
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -803,8 +824,12 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
@@ -816,6 +841,12 @@
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -827,6 +858,12 @@
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
@@ -838,7 +875,12 @@
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
@@ -850,6 +892,12 @@
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
@@ -862,7 +910,12 @@
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -874,6 +927,12 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
@@ -885,7 +944,12 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
@@ -897,6 +961,12 @@
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
@@ -908,6 +978,12 @@
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
@@ -919,7 +995,12 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
@@ -930,6 +1011,12 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\To upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Sunday Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3C6996-E5E7-46FF-877B-3473598BE43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FFA15-6EB9-4BF5-8125-CE836D330BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Team 1 name</t>
   </si>
@@ -59,106 +59,67 @@
     <t>The Oak FC</t>
   </si>
   <si>
+    <t>AFC Aldermaston A</t>
+  </si>
+  <si>
+    <t>Cup name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Republic of Chineham</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>Oakridge Nomads</t>
+  </si>
+  <si>
+    <t>Dynamo Jubilee</t>
+  </si>
+  <si>
+    <t>Hackwood Harriers</t>
+  </si>
+  <si>
+    <t>Cranbourne Saints</t>
+  </si>
+  <si>
+    <t>Legion Legends</t>
+  </si>
+  <si>
+    <t>Eastrop Eagles</t>
+  </si>
+  <si>
+    <t>Basingstoke Boars</t>
+  </si>
+  <si>
+    <t>Wyvern Palmeiras</t>
+  </si>
+  <si>
+    <t>Basing Utd</t>
+  </si>
+  <si>
+    <t>Tadley Town</t>
+  </si>
+  <si>
+    <t>Hampshire Royals</t>
+  </si>
+  <si>
+    <t>Basingstoke Casuals</t>
+  </si>
+  <si>
+    <t>Weaty FC</t>
+  </si>
+  <si>
+    <t>AFC Aldermaston B</t>
+  </si>
+  <si>
     <t>Eversley &amp; California</t>
   </si>
   <si>
-    <t>AFC Aldermaston A</t>
-  </si>
-  <si>
-    <t>Eastrop Eagles</t>
-  </si>
-  <si>
-    <t>Hackwood Harriers</t>
-  </si>
-  <si>
-    <t>The Winkle</t>
-  </si>
-  <si>
-    <t>Cup name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Winklebury FC</t>
-  </si>
-  <si>
-    <t>North Hants Athletic</t>
-  </si>
-  <si>
-    <t>March Hare</t>
-  </si>
-  <si>
-    <t>Republic of Chineham</t>
-  </si>
-  <si>
-    <t>Odiham Utd</t>
-  </si>
-  <si>
-    <t>Hampshire Royals</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>Tadley Town</t>
-  </si>
-  <si>
-    <t>AFC Aldermaston B</t>
-  </si>
-  <si>
-    <t>AFC Riverside</t>
-  </si>
-  <si>
-    <t>Basingstoke Casuals</t>
-  </si>
-  <si>
-    <t>Golden Lion</t>
-  </si>
-  <si>
-    <t>Mottisfont</t>
-  </si>
-  <si>
-    <t>Weyborne</t>
-  </si>
-  <si>
-    <t>Hampshire Trophy Cup</t>
-  </si>
-  <si>
-    <t>Dynamo Jubilee</t>
-  </si>
-  <si>
-    <t>Weaty FC</t>
-  </si>
-  <si>
-    <t>Rotten Hill</t>
-  </si>
-  <si>
-    <t>Hampshire Vase Cup</t>
-  </si>
-  <si>
-    <t>Saturn Royale</t>
-  </si>
-  <si>
-    <t>Netley Royals</t>
-  </si>
-  <si>
-    <t>Basingstoke Boars</t>
-  </si>
-  <si>
-    <t>Farnborough Raiders</t>
-  </si>
-  <si>
-    <t>Fleet Spurs Reserves</t>
-  </si>
-  <si>
-    <t>Riverdene Royals</t>
-  </si>
-  <si>
-    <t>Denmead Reserves</t>
-  </si>
-  <si>
-    <t>Creech Wood</t>
+    <t>Bernard Cornish Cup</t>
   </si>
 </sst>
 </file>
@@ -214,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -222,6 +183,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,9 +498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -567,6 +531,22 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -577,7 +557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -607,7 +589,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D2"/>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3"/>
@@ -623,7 +610,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B2" sqref="B2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -655,24 +642,31 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4"/>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5"/>
@@ -693,7 +687,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,31 +719,14 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4"/>
@@ -766,10 +743,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -796,234 +773,77 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
@@ -1040,12 +860,9 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E14">
-    <sortCondition ref="A6:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E13">
+    <sortCondition ref="A6:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1056,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,12 +884,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>45935</v>
+        <v>45977</v>
       </c>
     </row>
   </sheetData>
